--- a/POJ_Linux/doc/CentOS资料.xlsx
+++ b/POJ_Linux/doc/CentOS资料.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="下载教程" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -185,6 +185,66 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="3648075"/>
+          <a:ext cx="3086100" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -470,7 +530,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
